--- a/public/exam/高等数学1.xlsx
+++ b/public/exam/高等数学1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qilong\Desktop\vue-examSystem\ExamSystemServer\public\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B7AFA-90D4-44C5-A0FD-551CAF8F3664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC035C-0644-447A-9FE4-51BB84BDA590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
